--- a/get auxiliary data/seat_distribution_congress.xlsx
+++ b/get auxiliary data/seat_distribution_congress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mklde\OneDrive\Documents\R stuff\Pollspain-data\get auxiliary data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F65D3A-F75B-4C05-88B6-218F3355BEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21A022-96DE-457D-8CF2-97D07F6DE2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{FEE799F2-D2DF-4FD3-AA18-383B8DA4290B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>prov</t>
   </si>
@@ -261,9 +261,6 @@
     <t>1982</t>
   </si>
   <si>
-    <t>2986</t>
-  </si>
-  <si>
     <t>1989</t>
   </si>
   <si>
@@ -297,7 +294,7 @@
     <t>2023</t>
   </si>
   <si>
-    <t>CERA</t>
+    <t>1986</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -435,98 +432,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF457E76"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDDEEEC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -645,6 +563,78 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF457E76"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEEEC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
         <bottom style="medium">
           <color rgb="FF457E76"/>
         </bottom>
@@ -774,9 +764,9 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{C856A1A0-9E5D-42D5-B606-7CD5B19829D9}" name="prov"/>
-    <tableColumn id="2" xr3:uid="{9AEA51C2-0D3D-41B1-A659-820F5AFFC9B2}" name="cod_INE_prov" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9AEA51C2-0D3D-41B1-A659-820F5AFFC9B2}" name="cod_INE_prov" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{BA704BA4-134A-4D87-BF88-11EC80B944C3}" name="1982"/>
-    <tableColumn id="4" xr3:uid="{B55EBCCD-8672-4141-9F13-20EA0ED9F1F7}" name="2986"/>
+    <tableColumn id="4" xr3:uid="{B55EBCCD-8672-4141-9F13-20EA0ED9F1F7}" name="1986"/>
     <tableColumn id="5" xr3:uid="{AFA019F7-CEAF-4030-97F7-42F67AD262E7}" name="1989"/>
     <tableColumn id="6" xr3:uid="{38460AC1-C1C3-4F76-923E-449204C3762C}" name="1993"/>
     <tableColumn id="7" xr3:uid="{151D6798-C5A0-493D-9246-6B3521CA0C62}" name="1996"/>
@@ -794,16 +784,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{087A20D8-1FB5-46C6-BA53-D1A1FDA6A8F6}" name="Table1" displayName="Table1" ref="A1:D53" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{087A20D8-1FB5-46C6-BA53-D1A1FDA6A8F6}" name="Table1" displayName="Table1" ref="A1:D53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D53" xr:uid="{087A20D8-1FB5-46C6-BA53-D1A1FDA6A8F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D53">
     <sortCondition ref="D1:D53"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA60C663-BF6E-45BD-B9CD-2417A6AD8450}" name="CODAUTO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D309D0FE-8966-497E-AA2C-9BED86FFF13D}" name="Comunidad Autónoma" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{487DE051-1D4E-4A60-A83E-767CF091CA36}" name="CPRO" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2BAE6E1A-0822-4EC7-B865-D0E38FAE9907}" name="Provincia" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DA60C663-BF6E-45BD-B9CD-2417A6AD8450}" name="CODAUTO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D309D0FE-8966-497E-AA2C-9BED86FFF13D}" name="Comunidad Autónoma" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{487DE051-1D4E-4A60-A83E-767CF091CA36}" name="CPRO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2BAE6E1A-0822-4EC7-B865-D0E38FAE9907}" name="Provincia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1074,14 +1064,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -1095,47 +1087,47 @@
         <v>73</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1182,7 +1174,7 @@
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3">
@@ -1229,7 +1221,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1276,7 +1268,7 @@
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5">
@@ -1323,7 +1315,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>33</v>
       </c>
       <c r="C6">
@@ -1370,7 +1362,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7">
@@ -1417,7 +1409,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8">
@@ -1457,14 +1449,14 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9">
@@ -1511,7 +1503,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
       <c r="C10">
@@ -1558,7 +1550,7 @@
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>48</v>
       </c>
       <c r="C11">
@@ -1605,7 +1597,7 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>9</v>
       </c>
       <c r="C12">
@@ -1652,7 +1644,7 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>10</v>
       </c>
       <c r="C13">
@@ -1699,7 +1691,7 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>11</v>
       </c>
       <c r="C14">
@@ -1743,10 +1735,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>39</v>
       </c>
       <c r="C15">
@@ -1790,10 +1782,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>12</v>
       </c>
       <c r="C16">
@@ -1840,7 +1832,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>51</v>
       </c>
       <c r="C17">
@@ -1887,7 +1879,7 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>13</v>
       </c>
       <c r="C18">
@@ -1934,7 +1926,7 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>14</v>
       </c>
       <c r="C19">
@@ -1981,7 +1973,7 @@
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>15</v>
       </c>
       <c r="C20">
@@ -2028,7 +2020,7 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>16</v>
       </c>
       <c r="C21">
@@ -2072,10 +2064,10 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>20</v>
       </c>
       <c r="C22">
@@ -2122,7 +2114,7 @@
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>17</v>
       </c>
       <c r="C23">
@@ -2169,7 +2161,7 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>18</v>
       </c>
       <c r="C24">
@@ -2216,7 +2208,7 @@
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>19</v>
       </c>
       <c r="C25">
@@ -2263,7 +2255,7 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>21</v>
       </c>
       <c r="C26">
@@ -2310,7 +2302,7 @@
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>22</v>
       </c>
       <c r="C27">
@@ -2357,7 +2349,7 @@
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>23</v>
       </c>
       <c r="C28">
@@ -2404,7 +2396,7 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>24</v>
       </c>
       <c r="C29">
@@ -2451,7 +2443,7 @@
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>25</v>
       </c>
       <c r="C30">
@@ -2498,7 +2490,7 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <v>27</v>
       </c>
       <c r="C31">
@@ -2545,7 +2537,7 @@
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>28</v>
       </c>
       <c r="C32">
@@ -2592,7 +2584,7 @@
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>29</v>
       </c>
       <c r="C33">
@@ -2639,7 +2631,7 @@
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>52</v>
       </c>
       <c r="C34">
@@ -2686,7 +2678,7 @@
       <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <v>30</v>
       </c>
       <c r="C35">
@@ -2733,7 +2725,7 @@
       <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>31</v>
       </c>
       <c r="C36">
@@ -2780,7 +2772,7 @@
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>32</v>
       </c>
       <c r="C37">
@@ -2827,7 +2819,7 @@
       <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="13">
         <v>34</v>
       </c>
       <c r="C38">
@@ -2874,7 +2866,7 @@
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>35</v>
       </c>
       <c r="C39">
@@ -2921,7 +2913,7 @@
       <c r="A40" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>36</v>
       </c>
       <c r="C40">
@@ -2965,10 +2957,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>26</v>
       </c>
       <c r="C41">
@@ -3015,7 +3007,7 @@
       <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>37</v>
       </c>
       <c r="C42">
@@ -3062,7 +3054,7 @@
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>38</v>
       </c>
       <c r="C43">
@@ -3109,7 +3101,7 @@
       <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="13">
         <v>40</v>
       </c>
       <c r="C44">
@@ -3156,7 +3148,7 @@
       <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <v>41</v>
       </c>
       <c r="C45">
@@ -3203,7 +3195,7 @@
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <v>42</v>
       </c>
       <c r="C46">
@@ -3250,7 +3242,7 @@
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="13">
         <v>43</v>
       </c>
       <c r="C47">
@@ -3297,7 +3289,7 @@
       <c r="A48" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>44</v>
       </c>
       <c r="C48">
@@ -3341,10 +3333,10 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="12">
         <v>45</v>
       </c>
       <c r="C49">
@@ -3388,10 +3380,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="13">
         <v>46</v>
       </c>
       <c r="C50">
@@ -3431,14 +3423,14 @@
         <v>15</v>
       </c>
       <c r="O50">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="13">
         <v>47</v>
       </c>
       <c r="C51">
@@ -3485,7 +3477,7 @@
       <c r="A52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>49</v>
       </c>
       <c r="C52">
@@ -3532,7 +3524,7 @@
       <c r="A53" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>50</v>
       </c>
       <c r="C53">
@@ -3576,27 +3568,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="14">
-        <v>99</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16">
-        <v>0</v>
-      </c>
+      <c r="B54" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,7 +3593,7 @@
     <col min="4" max="4" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3663,7 +3635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3677,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>16</v>
       </c>
@@ -3692,20 +3664,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>33</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3775,7 +3747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -3789,7 +3761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3803,7 +3775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -3818,20 +3790,20 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="2">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -3873,7 +3845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3887,7 +3859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>12</v>
       </c>
@@ -3915,21 +3887,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>9</v>
       </c>
@@ -3943,7 +3915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3971,7 +3943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -3985,7 +3957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -3999,7 +3971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -4013,7 +3985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -4027,7 +3999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -4056,16 +4028,16 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+      <c r="A32" s="2">
         <v>13</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="2">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4084,20 +4056,20 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
+      <c r="A34" s="2">
         <v>19</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="2">
         <v>52</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>14</v>
       </c>
@@ -4112,16 +4084,16 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="56" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
+      <c r="A36" s="2">
         <v>15</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="2">
         <v>31</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4139,7 +4111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>7</v>
       </c>
@@ -4182,16 +4154,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
+      <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="2">
         <v>26</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4210,20 +4182,20 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="2">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="2">
         <v>38</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>7</v>
       </c>
@@ -4237,7 +4209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -4251,7 +4223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>7</v>
       </c>
@@ -4265,7 +4237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>9</v>
       </c>
@@ -4279,7 +4251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -4294,20 +4266,20 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A49" s="11">
-        <v>8</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="2">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="2">
         <v>45</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>10</v>
       </c>
@@ -4350,16 +4322,16 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="11">
+      <c r="A53" s="2">
         <v>2</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="2">
         <v>50</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="2" t="s">
         <v>40</v>
       </c>
     </row>
